--- a/data/3-analysis/output-results/tables/sens-matrix-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/sens-matrix-2023-11-28.xlsx
@@ -387,17 +387,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1092/2113, 51.7% (95%CI 49.5-53.8%)</t>
+          <t>1092/2112, 51.7% (95%CI 49.6-53.8%)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42/2113, 2% (95%CI 1.5-2.7%)</t>
+          <t>42/2112, 2% (95%CI 1.5-2.7%)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1638/2113, 77.5% (95%CI 75.7-79.2%)</t>
+          <t>1638/2112, 77.6% (95%CI 75.7-79.3%)</t>
         </is>
       </c>
     </row>
@@ -409,17 +409,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>786/1516, 51.8% (95%CI 49.3-54.4%)</t>
+          <t>786/1515, 51.9% (95%CI 49.4-54.4%)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27/1516, 1.8% (95%CI 1.2-2.6%)</t>
+          <t>27/1515, 1.8% (95%CI 1.2-2.6%)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1172/1516, 77.3% (95%CI 75.1-79.3%)</t>
+          <t>1172/1515, 77.4% (95%CI 75.2-79.4%)</t>
         </is>
       </c>
     </row>
@@ -431,17 +431,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262/432, 60.6% (95%CI 56-65.1%)</t>
+          <t>262/431, 60.8% (95%CI 56.1-65.3%)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>29/432, 6.7% (95%CI 4.7-9.5%)</t>
+          <t>29/431, 6.7% (95%CI 4.7-9.5%)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>377/432, 87.3% (95%CI 83.8-90.1%)</t>
+          <t>377/431, 87.5% (95%CI 84-90.3%)</t>
         </is>
       </c>
     </row>
@@ -475,17 +475,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>968/1825, 53% (95%CI 50.7-55.3%)</t>
+          <t>968/1824, 53.1% (95%CI 50.8-55.4%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>42/1825, 2.3% (95%CI 1.7-3.1%)</t>
+          <t>42/1824, 2.3% (95%CI 1.7-3.1%)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1479/1825, 81% (95%CI 79.2-82.8%)</t>
+          <t>1479/1824, 81.1% (95%CI 79.2-82.8%)</t>
         </is>
       </c>
     </row>
@@ -519,17 +519,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>947/2025, 46.8% (95%CI 44.6-48.9%)</t>
+          <t>947/2024, 46.8% (95%CI 44.6-49%)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>34/2025, 1.7% (95%CI 1.2-2.3%)</t>
+          <t>34/2024, 1.7% (95%CI 1.2-2.3%)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1570/2025, 77.5% (95%CI 75.7-79.3%)</t>
+          <t>1570/2024, 77.6% (95%CI 75.7-79.3%)</t>
         </is>
       </c>
     </row>

--- a/data/3-analysis/output-results/tables/sens-matrix-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/sens-matrix-2023-11-28.xlsx
@@ -387,17 +387,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1092/2112, 51.7% (95%CI 49.6-53.8%)</t>
+          <t>1097/2112, 51.9% (95%CI 49.8-54.1%)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>42/2112, 2% (95%CI 1.5-2.7%)</t>
+          <t>48/2112, 2.3% (95%CI 1.7-3%)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1638/2112, 77.6% (95%CI 75.7-79.3%)</t>
+          <t>1650/2112, 78.1% (95%CI 76.3-79.8%)</t>
         </is>
       </c>
     </row>
@@ -409,17 +409,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>786/1515, 51.9% (95%CI 49.4-54.4%)</t>
+          <t>790/1515, 52.1% (95%CI 49.6-54.7%)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27/1515, 1.8% (95%CI 1.2-2.6%)</t>
+          <t>32/1515, 2.1% (95%CI 1.5-3%)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1172/1515, 77.4% (95%CI 75.2-79.4%)</t>
+          <t>1181/1515, 78% (95%CI 75.8-80%)</t>
         </is>
       </c>
     </row>
@@ -431,17 +431,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262/431, 60.8% (95%CI 56.1-65.3%)</t>
+          <t>267/431, 61.9% (95%CI 57.3-66.4%)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>29/431, 6.7% (95%CI 4.7-9.5%)</t>
+          <t>35/431, 8.1% (95%CI 5.9-11.1%)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>377/431, 87.5% (95%CI 84-90.3%)</t>
+          <t>389/431, 90.3% (95%CI 87.1-92.7%)</t>
         </is>
       </c>
     </row>
@@ -475,17 +475,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>968/1824, 53.1% (95%CI 50.8-55.4%)</t>
+          <t>973/1824, 53.3% (95%CI 51.1-55.6%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>42/1824, 2.3% (95%CI 1.7-3.1%)</t>
+          <t>48/1824, 2.6% (95%CI 2-3.5%)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1479/1824, 81.1% (95%CI 79.2-82.8%)</t>
+          <t>1490/1824, 81.7% (95%CI 79.8-83.4%)</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>928/1675, 55.4% (95%CI 53-57.8%)</t>
+          <t>931/1675, 55.6% (95%CI 53.2-57.9%)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>37/1675, 2.2% (95%CI 1.6-3%)</t>
+          <t>42/1675, 2.5% (95%CI 1.9-3.4%)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1412/1675, 84.3% (95%CI 82.5-86%)</t>
+          <t>1418/1675, 84.7% (95%CI 82.9-86.3%)</t>
         </is>
       </c>
     </row>
@@ -519,17 +519,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>947/2024, 46.8% (95%CI 44.6-49%)</t>
+          <t>961/2045, 47% (95%CI 44.8-49.2%)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>34/2024, 1.7% (95%CI 1.2-2.3%)</t>
+          <t>38/2045, 1.9% (95%CI 1.4-2.5%)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1570/2024, 77.6% (95%CI 75.7-79.3%)</t>
+          <t>1600/2045, 78.2% (95%CI 76.4-80%)</t>
         </is>
       </c>
     </row>
